--- a/Code/Data/DJI/Compared Returns/Auto Recurrence/input 250/DJI_returns_compared_annual.xlsx
+++ b/Code/Data/DJI/Compared Returns/Auto Recurrence/input 250/DJI_returns_compared_annual.xlsx
@@ -501,13 +501,13 @@
         <v>0.06631783486247173</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05705886175784169</v>
+        <v>0.0498627309343872</v>
       </c>
       <c r="H2" t="n">
-        <v>-13.96151295323659</v>
+        <v>-24.81248665944645</v>
       </c>
       <c r="I2" t="n">
-        <v>24.73172408125936</v>
+        <v>-3.413942976876101</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.1182628833448802</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1582869109379152</v>
+        <v>0.1540116713702792</v>
       </c>
       <c r="H3" t="n">
-        <v>33.84327056893772</v>
+        <v>30.22823984525034</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>-0.274995350893673</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.361119421734298</v>
+        <v>-0.3231786052951287</v>
       </c>
       <c r="H4" t="n">
-        <v>31.31837340549255</v>
+        <v>-17.52147963406326</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>-0.3990148638577719</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.3954735426389136</v>
+        <v>-0.3674528162654716</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.8875161152193578</v>
+        <v>7.909992947919488</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>0.1971491815785268</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1801073617067568</v>
+        <v>0.1916545661959816</v>
       </c>
       <c r="H6" t="n">
-        <v>-8.644124076661218</v>
+        <v>-2.787034335395721</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>0.2073822796460858</v>
       </c>
       <c r="G7" t="n">
-        <v>0.305531117700842</v>
+        <v>0.3020470976145979</v>
       </c>
       <c r="H7" t="n">
-        <v>47.32749501175073</v>
+        <v>45.64749607828841</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>0.1018960173709444</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1022462483341543</v>
+        <v>0.1001620517788919</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3437140844621097</v>
+        <v>-1.701701044644506</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>0.1264800612384527</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1752486556145259</v>
+        <v>0.1480825482635562</v>
       </c>
       <c r="H9" t="n">
-        <v>38.55832603063801</v>
+        <v>17.07975693052233</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>0.06143780472882551</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03829206126972071</v>
+        <v>0.06555620062597109</v>
       </c>
       <c r="H10" t="n">
-        <v>-37.67345457941669</v>
+        <v>6.703357835331801</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>0.04993015109538564</v>
       </c>
       <c r="G11" t="n">
-        <v>0.05095796050582879</v>
+        <v>0.04974311481835503</v>
       </c>
       <c r="H11" t="n">
-        <v>2.058494492595548</v>
+        <v>-0.3745958562658955</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>0.09256721126172732</v>
       </c>
       <c r="G12" t="n">
-        <v>0.120430614119957</v>
+        <v>0.08155946344875906</v>
       </c>
       <c r="H12" t="n">
-        <v>30.10072624900393</v>
+        <v>-11.89162735155175</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>0.07620771866200983</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1000683278143197</v>
+        <v>0.1278482329377386</v>
       </c>
       <c r="H13" t="n">
-        <v>31.30996383467988</v>
+        <v>67.76283975217851</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>0.2259616431045758</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2256696618897042</v>
+        <v>0.179050365125718</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.1292171586557668</v>
+        <v>-20.76072617207298</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>0.2463625649637403</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2623743460235642</v>
+        <v>0.2636924799684676</v>
       </c>
       <c r="H15" t="n">
-        <v>6.499275189061502</v>
+        <v>7.034313434461096</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.1137448579612704</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1314095675700066</v>
+        <v>0.1316674038955023</v>
       </c>
       <c r="H16" t="n">
-        <v>15.53011707549097</v>
+        <v>15.75679661961901</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.1494083849463164</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1302069584099173</v>
+        <v>0.1701587347576966</v>
       </c>
       <c r="H17" t="n">
-        <v>-12.85163917895124</v>
+        <v>13.88834356173248</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>-0.00895194916121023</v>
       </c>
       <c r="G18" t="n">
-        <v>0.00368848623049789</v>
+        <v>-0.02918178016326432</v>
       </c>
       <c r="H18" t="n">
-        <v>-141.2031632896275</v>
+        <v>-225.9824160944987</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.02422178921552041</v>
       </c>
       <c r="G19" t="n">
-        <v>0.05937277529583662</v>
+        <v>0.04085513655069853</v>
       </c>
       <c r="H19" t="n">
-        <v>145.1213441234671</v>
+        <v>68.67101016848125</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.08506115944719507</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1200273529235348</v>
+        <v>0.1238729350852199</v>
       </c>
       <c r="H20" t="n">
-        <v>41.10712069243109</v>
+        <v>45.62808206502136</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.06545396619895082</v>
       </c>
       <c r="G21" t="n">
-        <v>0.06304241368136218</v>
+        <v>0.08458803709818742</v>
       </c>
       <c r="H21" t="n">
-        <v>-3.684348951839822</v>
+        <v>29.23286702149963</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.1915616787370005</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1487229446749218</v>
+        <v>0.1801501288294781</v>
       </c>
       <c r="H22" t="n">
-        <v>-22.36289342655688</v>
+        <v>-5.957115213627667</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.2157073228835368</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2367940650676208</v>
+        <v>0.2534484925931512</v>
       </c>
       <c r="H23" t="n">
-        <v>9.775626484163913</v>
+        <v>17.49647123940774</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>-0.0038055686336801</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.03295665704837658</v>
+        <v>-0.01288427524032425</v>
       </c>
       <c r="H24" t="n">
-        <v>766.0113696729336</v>
+        <v>-238.5637333221544</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>-0.02325732122729886</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03275574835578607</v>
+        <v>0.004498444500919158</v>
       </c>
       <c r="H25" t="n">
-        <v>-240.8405896605934</v>
+        <v>119.3420577415382</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.2048663213539785</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1822281340151547</v>
+        <v>0.2190753399039995</v>
       </c>
       <c r="H26" t="n">
-        <v>-11.05022396517209</v>
+        <v>6.935751301684147</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.1928845404492652</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2108090034680474</v>
+        <v>0.2133173888994717</v>
       </c>
       <c r="H27" t="n">
-        <v>9.29284585329269</v>
+        <v>10.59330540571808</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>0.06691367310833238</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04219148548236207</v>
+        <v>0.02794416365368594</v>
       </c>
       <c r="H28" t="n">
-        <v>-36.94639148854586</v>
+        <v>-58.23848496787092</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>0.09426457756500864</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1079567773842046</v>
+        <v>0.09717765027549695</v>
       </c>
       <c r="H29" t="n">
-        <v>14.5252863513373</v>
+        <v>3.090315350407567</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>

--- a/Code/Data/DJI/Compared Returns/Auto Recurrence/input 250/DJI_returns_compared_annual.xlsx
+++ b/Code/Data/DJI/Compared Returns/Auto Recurrence/input 250/DJI_returns_compared_annual.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -501,13 +501,13 @@
         <v>0.06631783486247173</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0498627309343872</v>
+        <v>0.08900859163381439</v>
       </c>
       <c r="H2" t="n">
-        <v>-24.81248665944645</v>
+        <v>34.21516522425406</v>
       </c>
       <c r="I2" t="n">
-        <v>-3.413942976876101</v>
+        <v>37.57270272164795</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.1182628833448802</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1540116713702792</v>
+        <v>0.135684081913601</v>
       </c>
       <c r="H3" t="n">
-        <v>30.22823984525034</v>
+        <v>14.73090971232015</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>-0.274995350893673</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.3231786052951287</v>
+        <v>-0.3935677481740325</v>
       </c>
       <c r="H4" t="n">
-        <v>-17.52147963406326</v>
+        <v>-43.11796432013338</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>-0.3990148638577719</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.3674528162654716</v>
+        <v>-0.3338609746858758</v>
       </c>
       <c r="H5" t="n">
-        <v>7.909992947919488</v>
+        <v>16.32868724286925</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>0.1971491815785268</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1916545661959816</v>
+        <v>0.2102466974330348</v>
       </c>
       <c r="H6" t="n">
-        <v>-2.787034335395721</v>
+        <v>6.643454337288807</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>0.2073822796460858</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3020470976145979</v>
+        <v>0.2741127412843961</v>
       </c>
       <c r="H7" t="n">
-        <v>45.64749607828841</v>
+        <v>32.17751379345965</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>0.1018960173709444</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1001620517788919</v>
+        <v>0.1033787296731483</v>
       </c>
       <c r="H8" t="n">
-        <v>-1.701701044644506</v>
+        <v>1.455122918893092</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>0.1264800612384527</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1480825482635562</v>
+        <v>0.1325409579881081</v>
       </c>
       <c r="H9" t="n">
-        <v>17.07975693052233</v>
+        <v>4.791978032196555</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>0.06143780472882551</v>
       </c>
       <c r="G10" t="n">
-        <v>0.06555620062597109</v>
+        <v>0.05430473058539857</v>
       </c>
       <c r="H10" t="n">
-        <v>6.703357835331801</v>
+        <v>-11.61023603449202</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>0.04993015109538564</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04974311481835503</v>
+        <v>0.03393333233658978</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.3745958562658955</v>
+        <v>-32.03839445275428</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>0.09256721126172732</v>
       </c>
       <c r="G12" t="n">
-        <v>0.08155946344875906</v>
+        <v>0.1337172870606279</v>
       </c>
       <c r="H12" t="n">
-        <v>-11.89162735155175</v>
+        <v>44.45426759433384</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>0.07620771866200983</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1278482329377386</v>
+        <v>0.08785331497596693</v>
       </c>
       <c r="H13" t="n">
-        <v>67.76283975217851</v>
+        <v>15.28138687054351</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>0.2259616431045758</v>
       </c>
       <c r="G14" t="n">
-        <v>0.179050365125718</v>
+        <v>0.2447859973650575</v>
       </c>
       <c r="H14" t="n">
-        <v>-20.76072617207298</v>
+        <v>8.330774197711824</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>0.2463625649637403</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2636924799684676</v>
+        <v>0.2538114800900541</v>
       </c>
       <c r="H15" t="n">
-        <v>7.034313434461096</v>
+        <v>3.023558034237123</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.1137448579612704</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1316674038955023</v>
+        <v>0.1388227429153342</v>
       </c>
       <c r="H16" t="n">
-        <v>15.75679661961901</v>
+        <v>22.0474889182267</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.1494083849463164</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1701587347576966</v>
+        <v>0.137494947518497</v>
       </c>
       <c r="H17" t="n">
-        <v>13.88834356173248</v>
+        <v>-7.973740852697111</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>-0.00895194916121023</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.02918178016326432</v>
+        <v>0.03369992356945477</v>
       </c>
       <c r="H18" t="n">
-        <v>-225.9824160944987</v>
+        <v>476.453473568418</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.02422178921552041</v>
       </c>
       <c r="G19" t="n">
-        <v>0.04085513655069853</v>
+        <v>0.01561424089453524</v>
       </c>
       <c r="H19" t="n">
-        <v>68.67101016848125</v>
+        <v>-35.53638521249197</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.08506115944719507</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1238729350852199</v>
+        <v>0.112893995033526</v>
       </c>
       <c r="H20" t="n">
-        <v>45.62808206502136</v>
+        <v>32.72096896775692</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.06545396619895082</v>
       </c>
       <c r="G21" t="n">
-        <v>0.08458803709818742</v>
+        <v>0.0845498315713387</v>
       </c>
       <c r="H21" t="n">
-        <v>29.23286702149963</v>
+        <v>29.17449695003201</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.1915616787370005</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1801501288294781</v>
+        <v>0.1712472278632153</v>
       </c>
       <c r="H22" t="n">
-        <v>-5.957115213627667</v>
+        <v>-10.60465277174532</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.2157073228835368</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2534484925931512</v>
+        <v>0.2120633025769659</v>
       </c>
       <c r="H23" t="n">
-        <v>17.49647123940774</v>
+        <v>-1.689335465230524</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>-0.0038055686336801</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.01288427524032425</v>
+        <v>0.007709482702567048</v>
       </c>
       <c r="H24" t="n">
-        <v>-238.5637333221544</v>
+        <v>302.5842507302712</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>-0.02325732122729886</v>
       </c>
       <c r="G25" t="n">
-        <v>0.004498444500919158</v>
+        <v>0.01797141341366813</v>
       </c>
       <c r="H25" t="n">
-        <v>119.3420577415382</v>
+        <v>177.2720694616099</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.2048663213539785</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2190753399039995</v>
+        <v>0.1913678783344877</v>
       </c>
       <c r="H26" t="n">
-        <v>6.935751301684147</v>
+        <v>-6.58890291497327</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.1928845404492652</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2133173888994717</v>
+        <v>0.2077986282000694</v>
       </c>
       <c r="H27" t="n">
-        <v>10.59330540571808</v>
+        <v>7.732132246610542</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>0.06691367310833238</v>
       </c>
       <c r="G28" t="n">
-        <v>0.02794416365368594</v>
+        <v>0.0261554003137069</v>
       </c>
       <c r="H28" t="n">
-        <v>-58.23848496787092</v>
+        <v>-60.91172536387048</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,14 +1394,14 @@
         <v>0.09426457756500864</v>
       </c>
       <c r="G29" t="n">
-        <v>0.09717765027549695</v>
+        <v>0.1250790220639952</v>
       </c>
       <c r="H29" t="n">
-        <v>3.090315350407567</v>
+        <v>32.68931479349779</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>